--- a/db/datacalon1Juli.xlsx
+++ b/db/datacalon1Juli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/chatbotadmin/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9C8D96-AD1D-C74C-B22E-54C0381DCFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A0FCA5-B98D-C342-A5DD-AF4BC01D1748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1460" windowWidth="24000" windowHeight="14000" xr2:uid="{C83C74E1-57C5-1048-9B51-A4547170A260}"/>
   </bookViews>
@@ -4089,102 +4089,66 @@
     <t>312</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0300</t>
-  </si>
-  <si>
     <t>313</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0301</t>
-  </si>
-  <si>
     <t>314</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0302</t>
-  </si>
-  <si>
     <t>Hana Nur Shabrina</t>
   </si>
   <si>
     <t>315</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0303</t>
-  </si>
-  <si>
     <t>Akhsan Ardhana Novian</t>
   </si>
   <si>
     <t>316</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0304</t>
-  </si>
-  <si>
     <t>Ferdiansyah Putra Hidayat</t>
   </si>
   <si>
     <t>317</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0305</t>
-  </si>
-  <si>
     <t>Nailah Kiara Putri</t>
   </si>
   <si>
     <t>318</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0306</t>
-  </si>
-  <si>
     <t>Salsabila Safitri</t>
   </si>
   <si>
     <t>319</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0307</t>
-  </si>
-  <si>
     <t>Arkaan Afzaal Sigit</t>
   </si>
   <si>
     <t>320</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0308</t>
-  </si>
-  <si>
     <t>Muhamad Hadi Saputra</t>
   </si>
   <si>
     <t>321</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0309</t>
-  </si>
-  <si>
     <t>Wandi Aditya</t>
   </si>
   <si>
     <t>322</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0310</t>
-  </si>
-  <si>
     <t>Fransiscus Jova Jales Nugroho</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0311</t>
-  </si>
-  <si>
     <t>Ahmad Hilmy</t>
   </si>
   <si>
@@ -4194,54 +4158,36 @@
     <t>324</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0312</t>
-  </si>
-  <si>
     <t>Muhammad Rafli Putra Perdana</t>
   </si>
   <si>
     <t>325</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0313</t>
-  </si>
-  <si>
     <t>Shelly Astriani</t>
   </si>
   <si>
     <t>326</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0314</t>
-  </si>
-  <si>
     <t>Adelia</t>
   </si>
   <si>
     <t>327</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0315</t>
-  </si>
-  <si>
     <t>Nur Fadiyah</t>
   </si>
   <si>
     <t>328</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0316</t>
-  </si>
-  <si>
     <t>Nur Hidayat Adi Pratama</t>
   </si>
   <si>
     <t>329</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0317</t>
-  </si>
-  <si>
     <t>Abi Abdillah</t>
   </si>
   <si>
@@ -4251,18 +4197,12 @@
     <t>330</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0318</t>
-  </si>
-  <si>
     <t>Naufal Hilmy Haidar</t>
   </si>
   <si>
     <t>331</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0319</t>
-  </si>
-  <si>
     <t>Nalendra Gusti Kusuma</t>
   </si>
   <si>
@@ -4272,9 +4212,6 @@
     <t>332</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0320</t>
-  </si>
-  <si>
     <t>Muhammad Nasywan Fadillah Putra</t>
   </si>
   <si>
@@ -4284,87 +4221,57 @@
     <t>333</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0321</t>
-  </si>
-  <si>
     <t>Dzaky Mustafa Naufal</t>
   </si>
   <si>
     <t>334</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0322</t>
-  </si>
-  <si>
     <t>Ihsan Maulana Ar Rasyid</t>
   </si>
   <si>
     <t>335</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0323</t>
-  </si>
-  <si>
     <t>336</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0324</t>
-  </si>
-  <si>
     <t>Putri Vania Ramadanti</t>
   </si>
   <si>
     <t>337</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0325</t>
-  </si>
-  <si>
     <t>Kitaro Yasashi Hasiolan Pasaribu</t>
   </si>
   <si>
     <t>338</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0326</t>
-  </si>
-  <si>
     <t>Nova Putra Ramadhan</t>
   </si>
   <si>
     <t>339</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0327</t>
-  </si>
-  <si>
     <t>Muhammad Jimmy Ramdan</t>
   </si>
   <si>
     <t>340</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0328</t>
-  </si>
-  <si>
     <t>Zein Mukaffi Akbarudin</t>
   </si>
   <si>
     <t>341</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0329</t>
-  </si>
-  <si>
     <t>Andrian Ilham</t>
   </si>
   <si>
     <t>342</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0330</t>
-  </si>
-  <si>
     <t>Dhiya Muhammad Nugrahajati</t>
   </si>
   <si>
@@ -4374,9 +4281,6 @@
     <t>343</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0331</t>
-  </si>
-  <si>
     <t>Dahniar Putri Wulandari</t>
   </si>
   <si>
@@ -4386,69 +4290,45 @@
     <t>344</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0332</t>
-  </si>
-  <si>
     <t>Adithya Jayaningrum</t>
   </si>
   <si>
     <t>345</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0333</t>
-  </si>
-  <si>
     <t>Eka Ferdy Febriansyah</t>
   </si>
   <si>
     <t>346</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0334</t>
-  </si>
-  <si>
     <t>Damar Ramiz Akram</t>
   </si>
   <si>
     <t>347</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0335</t>
-  </si>
-  <si>
     <t>Muhammad Khoirul Anam</t>
   </si>
   <si>
     <t>348</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0336</t>
-  </si>
-  <si>
     <t>349</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0337</t>
-  </si>
-  <si>
     <t>Chatarina Milano Nauli</t>
   </si>
   <si>
     <t>350</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0338</t>
-  </si>
-  <si>
     <t>Cut Jenita Nuramalia</t>
   </si>
   <si>
     <t>351</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0339</t>
-  </si>
-  <si>
     <t>Aryo Dwi Saputro</t>
   </si>
   <si>
@@ -4458,9 +4338,6 @@
     <t>352</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0340</t>
-  </si>
-  <si>
     <t>Andhita Amalia Putri</t>
   </si>
   <si>
@@ -4470,72 +4347,48 @@
     <t>353</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0341</t>
-  </si>
-  <si>
     <t>Fakhrul Anggoro</t>
   </si>
   <si>
     <t>354</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0342</t>
-  </si>
-  <si>
     <t>Ghina Hanifah Widyanti</t>
   </si>
   <si>
     <t>355</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0343</t>
-  </si>
-  <si>
     <t>Muhammad Dimaz Ardiansyah</t>
   </si>
   <si>
     <t>356</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0344</t>
-  </si>
-  <si>
     <t>Muhammad Rafly Kaka Pratama</t>
   </si>
   <si>
     <t>357</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0345</t>
-  </si>
-  <si>
     <t>Zidan Firdaus Tarmizi</t>
   </si>
   <si>
     <t>358</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0346</t>
-  </si>
-  <si>
     <t>Muhammad Ar-Razy</t>
   </si>
   <si>
     <t>359</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0347</t>
-  </si>
-  <si>
     <t>Nur Rohhanto</t>
   </si>
   <si>
     <t>360</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0348</t>
-  </si>
-  <si>
     <t>Andira Septiani</t>
   </si>
   <si>
@@ -4545,45 +4398,30 @@
     <t>361</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0349</t>
-  </si>
-  <si>
     <t>Nadia Syafira</t>
   </si>
   <si>
     <t>362</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0350</t>
-  </si>
-  <si>
     <t>Muhammad Nizar Al-Faiq</t>
   </si>
   <si>
     <t>363</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0351</t>
-  </si>
-  <si>
     <t>Faraz Yanuar Farjan</t>
   </si>
   <si>
     <t>364</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0352</t>
-  </si>
-  <si>
     <t>Monika Apriliajuri</t>
   </si>
   <si>
     <t>365</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0353</t>
-  </si>
-  <si>
     <t>Muhammad Fatih Adzikri</t>
   </si>
   <si>
@@ -4593,9 +4431,6 @@
     <t>366</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0354</t>
-  </si>
-  <si>
     <t>Hamdillah Nurul Fauzan</t>
   </si>
   <si>
@@ -4605,54 +4440,36 @@
     <t>367</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0355</t>
-  </si>
-  <si>
     <t>Aldhino Abie Arifqi</t>
   </si>
   <si>
     <t>368</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0356</t>
-  </si>
-  <si>
     <t>Putri Chinta Ramadini</t>
   </si>
   <si>
     <t>369</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0357</t>
-  </si>
-  <si>
     <t>Adithya Chandra Devian</t>
   </si>
   <si>
     <t>370</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0358</t>
-  </si>
-  <si>
     <t>Razan Ramadhan Putra Irawan</t>
   </si>
   <si>
     <t>371</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0359</t>
-  </si>
-  <si>
     <t>Riyan Adriyansyah</t>
   </si>
   <si>
     <t>372</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0360</t>
-  </si>
-  <si>
     <t>Adam Dwi Saputra</t>
   </si>
   <si>
@@ -4662,9 +4479,6 @@
     <t>373</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0361</t>
-  </si>
-  <si>
     <t>Hanan Raisa Putri</t>
   </si>
   <si>
@@ -4674,9 +4488,6 @@
     <t>374</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0362</t>
-  </si>
-  <si>
     <t>Muhammad Nabhan Azamiy</t>
   </si>
   <si>
@@ -4686,9 +4497,6 @@
     <t>375</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0363</t>
-  </si>
-  <si>
     <t>Muhammad Revan Alrizqi</t>
   </si>
   <si>
@@ -4698,54 +4506,36 @@
     <t>376</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0364</t>
-  </si>
-  <si>
     <t>Joy Widi Wibowo</t>
   </si>
   <si>
     <t>377</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0365</t>
-  </si>
-  <si>
     <t>Alfin Alifurrohman</t>
   </si>
   <si>
     <t>378</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0366</t>
-  </si>
-  <si>
     <t>Anisa Apriliani Putri</t>
   </si>
   <si>
     <t>379</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0367</t>
-  </si>
-  <si>
     <t>Sabrina Anggraini Prakoso</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0368</t>
-  </si>
-  <si>
     <t>Febri Yanto</t>
   </si>
   <si>
     <t>381</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0369</t>
-  </si>
-  <si>
     <t>Dhavin Wahyu Wardhana</t>
   </si>
   <si>
@@ -4755,9 +4545,6 @@
     <t>382</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0370</t>
-  </si>
-  <si>
     <t>Erlangga Arya Paradipta</t>
   </si>
   <si>
@@ -4767,45 +4554,30 @@
     <t>383</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0371</t>
-  </si>
-  <si>
     <t>Mohammad Fattan Hibrizi</t>
   </si>
   <si>
     <t>384</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0372</t>
-  </si>
-  <si>
     <t>Muhammad Rafa Ahdiyaka</t>
   </si>
   <si>
     <t>385</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0373</t>
-  </si>
-  <si>
     <t>Ahmad Rizal</t>
   </si>
   <si>
     <t>386</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0374</t>
-  </si>
-  <si>
     <t>Mesti Agustin</t>
   </si>
   <si>
     <t>387</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0375</t>
-  </si>
-  <si>
     <t>Gita Azahra</t>
   </si>
   <si>
@@ -4815,9 +4587,6 @@
     <t>388</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0376</t>
-  </si>
-  <si>
     <t>Banyu Hanuraga</t>
   </si>
   <si>
@@ -4827,42 +4596,27 @@
     <t>389</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0377</t>
-  </si>
-  <si>
     <t>Muhammad Rangga Putra Susanto</t>
   </si>
   <si>
     <t>390</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0378</t>
-  </si>
-  <si>
     <t>391</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0379</t>
-  </si>
-  <si>
     <t>Siti Zarrahmawati</t>
   </si>
   <si>
     <t>392</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0380</t>
-  </si>
-  <si>
     <t>Yuri Andini Putri</t>
   </si>
   <si>
     <t>393</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0381</t>
-  </si>
-  <si>
     <t>Aldino Mangaraja</t>
   </si>
   <si>
@@ -4872,27 +4626,18 @@
     <t>394</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0382</t>
-  </si>
-  <si>
     <t>Muhammad Faqih Ramadhan</t>
   </si>
   <si>
     <t>395</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0383</t>
-  </si>
-  <si>
     <t>Qawla Khoirunisa</t>
   </si>
   <si>
     <t>396</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0384</t>
-  </si>
-  <si>
     <t>Wisnu Eka Permadi</t>
   </si>
   <si>
@@ -4902,18 +4647,12 @@
     <t>397</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0385</t>
-  </si>
-  <si>
     <t>Naufal Abinawa Zubair</t>
   </si>
   <si>
     <t>398</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0386</t>
-  </si>
-  <si>
     <t>Anisa Nur Isnaeni</t>
   </si>
   <si>
@@ -4923,18 +4662,12 @@
     <t>399</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0387</t>
-  </si>
-  <si>
     <t>Ahmad Fajar Rizqy</t>
   </si>
   <si>
     <t>400</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0388</t>
-  </si>
-  <si>
     <t>Firman Adhi Setyawan</t>
   </si>
   <si>
@@ -4944,18 +4677,12 @@
     <t>401</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0389</t>
-  </si>
-  <si>
     <t>Arya Shidiq</t>
   </si>
   <si>
     <t>402</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0390</t>
-  </si>
-  <si>
     <t>Adhisa Taufiqah Budiono</t>
   </si>
   <si>
@@ -4965,27 +4692,18 @@
     <t>403</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0391</t>
-  </si>
-  <si>
     <t>Alfya Zahra Nugraheni</t>
   </si>
   <si>
     <t>404</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0392</t>
-  </si>
-  <si>
     <t>Hatulza Kaffa Ambiya Noor</t>
   </si>
   <si>
     <t>405</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0393</t>
-  </si>
-  <si>
     <t>Neyna Anggraeny</t>
   </si>
   <si>
@@ -4995,17 +4713,299 @@
     <t>406</t>
   </si>
   <si>
-    <t>PPDB-2021-10-0394</t>
-  </si>
-  <si>
     <t>Anindia Putri Jasita</t>
+  </si>
+  <si>
+    <t>PPDB2021100300</t>
+  </si>
+  <si>
+    <t>PPDB2021100301</t>
+  </si>
+  <si>
+    <t>PPDB2021100302</t>
+  </si>
+  <si>
+    <t>PPDB2021100303</t>
+  </si>
+  <si>
+    <t>PPDB2021100304</t>
+  </si>
+  <si>
+    <t>PPDB2021100305</t>
+  </si>
+  <si>
+    <t>PPDB2021100306</t>
+  </si>
+  <si>
+    <t>PPDB2021100307</t>
+  </si>
+  <si>
+    <t>PPDB2021100308</t>
+  </si>
+  <si>
+    <t>PPDB2021100309</t>
+  </si>
+  <si>
+    <t>PPDB2021100310</t>
+  </si>
+  <si>
+    <t>PPDB2021100311</t>
+  </si>
+  <si>
+    <t>PPDB2021100312</t>
+  </si>
+  <si>
+    <t>PPDB2021100313</t>
+  </si>
+  <si>
+    <t>PPDB2021100314</t>
+  </si>
+  <si>
+    <t>PPDB2021100315</t>
+  </si>
+  <si>
+    <t>PPDB2021100316</t>
+  </si>
+  <si>
+    <t>PPDB2021100317</t>
+  </si>
+  <si>
+    <t>PPDB2021100318</t>
+  </si>
+  <si>
+    <t>PPDB2021100319</t>
+  </si>
+  <si>
+    <t>PPDB2021100320</t>
+  </si>
+  <si>
+    <t>PPDB2021100321</t>
+  </si>
+  <si>
+    <t>PPDB2021100322</t>
+  </si>
+  <si>
+    <t>PPDB2021100323</t>
+  </si>
+  <si>
+    <t>PPDB2021100324</t>
+  </si>
+  <si>
+    <t>PPDB2021100325</t>
+  </si>
+  <si>
+    <t>PPDB2021100326</t>
+  </si>
+  <si>
+    <t>PPDB2021100327</t>
+  </si>
+  <si>
+    <t>PPDB2021100328</t>
+  </si>
+  <si>
+    <t>PPDB2021100329</t>
+  </si>
+  <si>
+    <t>PPDB2021100330</t>
+  </si>
+  <si>
+    <t>PPDB2021100331</t>
+  </si>
+  <si>
+    <t>PPDB2021100332</t>
+  </si>
+  <si>
+    <t>PPDB2021100333</t>
+  </si>
+  <si>
+    <t>PPDB2021100334</t>
+  </si>
+  <si>
+    <t>PPDB2021100335</t>
+  </si>
+  <si>
+    <t>PPDB2021100336</t>
+  </si>
+  <si>
+    <t>PPDB2021100337</t>
+  </si>
+  <si>
+    <t>PPDB2021100338</t>
+  </si>
+  <si>
+    <t>PPDB2021100339</t>
+  </si>
+  <si>
+    <t>PPDB2021100340</t>
+  </si>
+  <si>
+    <t>PPDB2021100341</t>
+  </si>
+  <si>
+    <t>PPDB2021100342</t>
+  </si>
+  <si>
+    <t>PPDB2021100343</t>
+  </si>
+  <si>
+    <t>PPDB2021100344</t>
+  </si>
+  <si>
+    <t>PPDB2021100345</t>
+  </si>
+  <si>
+    <t>PPDB2021100346</t>
+  </si>
+  <si>
+    <t>PPDB2021100347</t>
+  </si>
+  <si>
+    <t>PPDB2021100348</t>
+  </si>
+  <si>
+    <t>PPDB2021100349</t>
+  </si>
+  <si>
+    <t>PPDB2021100350</t>
+  </si>
+  <si>
+    <t>PPDB2021100351</t>
+  </si>
+  <si>
+    <t>PPDB2021100352</t>
+  </si>
+  <si>
+    <t>PPDB2021100353</t>
+  </si>
+  <si>
+    <t>PPDB2021100354</t>
+  </si>
+  <si>
+    <t>PPDB2021100355</t>
+  </si>
+  <si>
+    <t>PPDB2021100356</t>
+  </si>
+  <si>
+    <t>PPDB2021100357</t>
+  </si>
+  <si>
+    <t>PPDB2021100358</t>
+  </si>
+  <si>
+    <t>PPDB2021100359</t>
+  </si>
+  <si>
+    <t>PPDB2021100360</t>
+  </si>
+  <si>
+    <t>PPDB2021100361</t>
+  </si>
+  <si>
+    <t>PPDB2021100362</t>
+  </si>
+  <si>
+    <t>PPDB2021100363</t>
+  </si>
+  <si>
+    <t>PPDB2021100364</t>
+  </si>
+  <si>
+    <t>PPDB2021100365</t>
+  </si>
+  <si>
+    <t>PPDB2021100366</t>
+  </si>
+  <si>
+    <t>PPDB2021100367</t>
+  </si>
+  <si>
+    <t>PPDB2021100368</t>
+  </si>
+  <si>
+    <t>PPDB2021100369</t>
+  </si>
+  <si>
+    <t>PPDB2021100370</t>
+  </si>
+  <si>
+    <t>PPDB2021100371</t>
+  </si>
+  <si>
+    <t>PPDB2021100372</t>
+  </si>
+  <si>
+    <t>PPDB2021100373</t>
+  </si>
+  <si>
+    <t>PPDB2021100374</t>
+  </si>
+  <si>
+    <t>PPDB2021100375</t>
+  </si>
+  <si>
+    <t>PPDB2021100376</t>
+  </si>
+  <si>
+    <t>PPDB2021100377</t>
+  </si>
+  <si>
+    <t>PPDB2021100378</t>
+  </si>
+  <si>
+    <t>PPDB2021100379</t>
+  </si>
+  <si>
+    <t>PPDB2021100380</t>
+  </si>
+  <si>
+    <t>PPDB2021100381</t>
+  </si>
+  <si>
+    <t>PPDB2021100382</t>
+  </si>
+  <si>
+    <t>PPDB2021100383</t>
+  </si>
+  <si>
+    <t>PPDB2021100384</t>
+  </si>
+  <si>
+    <t>PPDB2021100385</t>
+  </si>
+  <si>
+    <t>PPDB2021100386</t>
+  </si>
+  <si>
+    <t>PPDB2021100387</t>
+  </si>
+  <si>
+    <t>PPDB2021100388</t>
+  </si>
+  <si>
+    <t>PPDB2021100389</t>
+  </si>
+  <si>
+    <t>PPDB2021100390</t>
+  </si>
+  <si>
+    <t>PPDB2021100391</t>
+  </si>
+  <si>
+    <t>PPDB2021100392</t>
+  </si>
+  <si>
+    <t>PPDB2021100393</t>
+  </si>
+  <si>
+    <t>PPDB2021100394</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5037,6 +5037,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5447,7 +5453,7 @@
   <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15447,12 +15453,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1354</v>
+        <v>1563</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>1345</v>
@@ -15479,12 +15485,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1356</v>
+        <v>1564</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>1010</v>
@@ -15511,15 +15517,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1358</v>
+        <v>1565</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>13</v>
@@ -15543,15 +15549,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1361</v>
+        <v>1566</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>22</v>
@@ -15575,15 +15581,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1364</v>
+        <v>1567</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>22</v>
@@ -15607,15 +15613,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1367</v>
+        <v>1568</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>13</v>
@@ -15639,15 +15645,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1370</v>
+        <v>1569</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>13</v>
@@ -15671,15 +15677,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1373</v>
+        <v>1570</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>22</v>
@@ -15703,15 +15709,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1376</v>
+        <v>1571</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>22</v>
@@ -15735,15 +15741,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1379</v>
+        <v>1572</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>22</v>
@@ -15767,15 +15773,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>1382</v>
+        <v>1371</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>1573</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>22</v>
@@ -15799,15 +15805,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1385</v>
+        <v>1574</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>22</v>
@@ -15825,21 +15831,21 @@
         <v>16</v>
       </c>
       <c r="I324" s="6" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1389</v>
+        <v>1575</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>22</v>
@@ -15863,15 +15869,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1392</v>
+        <v>1576</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>13</v>
@@ -15895,15 +15901,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1395</v>
+        <v>1577</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>13</v>
@@ -15927,15 +15933,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1398</v>
+        <v>1578</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>13</v>
@@ -15959,15 +15965,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1401</v>
+        <v>1579</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>22</v>
@@ -15991,15 +15997,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1404</v>
+        <v>1580</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>1405</v>
+        <v>1387</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>22</v>
@@ -16017,21 +16023,21 @@
         <v>118</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>1406</v>
+        <v>1388</v>
       </c>
       <c r="J330" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1408</v>
+        <v>1581</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>1409</v>
+        <v>1390</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>22</v>
@@ -16055,15 +16061,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>1410</v>
+        <v>1391</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1411</v>
+        <v>1582</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>1412</v>
+        <v>1392</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>13</v>
@@ -16081,21 +16087,21 @@
         <v>17</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>1413</v>
+        <v>1393</v>
       </c>
       <c r="J332" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1415</v>
+        <v>1583</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>22</v>
@@ -16113,21 +16119,21 @@
         <v>36</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="J333" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1419</v>
+        <v>1584</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>1420</v>
+        <v>1398</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>22</v>
@@ -16151,15 +16157,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1422</v>
+        <v>1585</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>1423</v>
+        <v>1400</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>22</v>
@@ -16183,12 +16189,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>1424</v>
+        <v>1401</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1425</v>
+        <v>1586</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>977</v>
@@ -16215,15 +16221,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>1426</v>
+        <v>1402</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1427</v>
+        <v>1587</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>13</v>
@@ -16247,15 +16253,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>1429</v>
+        <v>1404</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1430</v>
+        <v>1588</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>1431</v>
+        <v>1405</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>22</v>
@@ -16279,15 +16285,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>1432</v>
+        <v>1406</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1433</v>
+        <v>1589</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>1434</v>
+        <v>1407</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>22</v>
@@ -16311,15 +16317,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>1435</v>
+        <v>1408</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1436</v>
+        <v>1590</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>1437</v>
+        <v>1409</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>22</v>
@@ -16343,15 +16349,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>1438</v>
+        <v>1410</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1439</v>
+        <v>1591</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>1440</v>
+        <v>1411</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>22</v>
@@ -16375,15 +16381,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>1441</v>
+        <v>1412</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1442</v>
+        <v>1592</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>1443</v>
+        <v>1413</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>22</v>
@@ -16407,15 +16413,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>1444</v>
+        <v>1414</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1445</v>
+        <v>1593</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>1446</v>
+        <v>1415</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>22</v>
@@ -16433,21 +16439,21 @@
         <v>16</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>1447</v>
+        <v>1416</v>
       </c>
       <c r="J343" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>1448</v>
+        <v>1417</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1449</v>
+        <v>1594</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1450</v>
+        <v>1418</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>13</v>
@@ -16465,21 +16471,21 @@
         <v>36</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>1451</v>
+        <v>1419</v>
       </c>
       <c r="J344" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>1452</v>
+        <v>1420</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1453</v>
+        <v>1595</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>1454</v>
+        <v>1421</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>22</v>
@@ -16503,15 +16509,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>1455</v>
+        <v>1422</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1456</v>
+        <v>1596</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>1457</v>
+        <v>1423</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>22</v>
@@ -16535,15 +16541,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>1458</v>
+        <v>1424</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1459</v>
+        <v>1597</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>1460</v>
+        <v>1425</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>22</v>
@@ -16567,15 +16573,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>1461</v>
+        <v>1426</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1462</v>
+        <v>1598</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>1463</v>
+        <v>1427</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>22</v>
@@ -16599,12 +16605,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>1464</v>
+        <v>1428</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1465</v>
+        <v>1599</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>1216</v>
@@ -16631,15 +16637,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>1466</v>
+        <v>1429</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1467</v>
+        <v>1600</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>1468</v>
+        <v>1430</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>13</v>
@@ -16663,15 +16669,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>1469</v>
+        <v>1431</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1470</v>
+        <v>1601</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>1471</v>
+        <v>1432</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>13</v>
@@ -16695,15 +16701,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>1472</v>
+        <v>1433</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1473</v>
+        <v>1602</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>1474</v>
+        <v>1434</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>22</v>
@@ -16721,21 +16727,21 @@
         <v>16</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>1475</v>
+        <v>1435</v>
       </c>
       <c r="J352" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>1476</v>
+        <v>1436</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1477</v>
+        <v>1603</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1478</v>
+        <v>1437</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>13</v>
@@ -16753,21 +16759,21 @@
         <v>36</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>1479</v>
+        <v>1438</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>1480</v>
+        <v>1439</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1481</v>
+        <v>1604</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1482</v>
+        <v>1440</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>22</v>
@@ -16791,15 +16797,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>1483</v>
+        <v>1441</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1484</v>
+        <v>1605</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1485</v>
+        <v>1442</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>13</v>
@@ -16823,15 +16829,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>1486</v>
+        <v>1443</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1487</v>
+        <v>1606</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1488</v>
+        <v>1444</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>22</v>
@@ -16855,15 +16861,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>1489</v>
+        <v>1445</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1490</v>
+        <v>1607</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1491</v>
+        <v>1446</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>22</v>
@@ -16887,15 +16893,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>1492</v>
+        <v>1447</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1493</v>
+        <v>1608</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1494</v>
+        <v>1448</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>22</v>
@@ -16919,15 +16925,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>1495</v>
+        <v>1449</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1496</v>
+        <v>1609</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1497</v>
+        <v>1450</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>22</v>
@@ -16951,15 +16957,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>1498</v>
+        <v>1451</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1499</v>
+        <v>1610</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1500</v>
+        <v>1452</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>22</v>
@@ -16983,15 +16989,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>1501</v>
+        <v>1453</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1502</v>
+        <v>1611</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1503</v>
+        <v>1454</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>13</v>
@@ -17009,21 +17015,21 @@
         <v>17</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>1504</v>
+        <v>1455</v>
       </c>
       <c r="J361" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>1505</v>
+        <v>1456</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1506</v>
+        <v>1612</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1507</v>
+        <v>1457</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>13</v>
@@ -17047,15 +17053,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>1508</v>
+        <v>1458</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1509</v>
+        <v>1613</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1510</v>
+        <v>1459</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>22</v>
@@ -17079,15 +17085,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>1511</v>
+        <v>1460</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1512</v>
+        <v>1614</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1513</v>
+        <v>1461</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>22</v>
@@ -17111,15 +17117,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>1514</v>
+        <v>1462</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1515</v>
+        <v>1615</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>1516</v>
+        <v>1463</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>13</v>
@@ -17137,21 +17143,21 @@
         <v>17</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>1479</v>
+        <v>1438</v>
       </c>
       <c r="J365" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>1517</v>
+        <v>1464</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1518</v>
+        <v>1616</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>1519</v>
+        <v>1465</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>22</v>
@@ -17169,21 +17175,21 @@
         <v>16</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>1520</v>
+        <v>1466</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>1521</v>
+        <v>1467</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1522</v>
+        <v>1617</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>1523</v>
+        <v>1468</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>22</v>
@@ -17201,21 +17207,21 @@
         <v>36</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>1524</v>
+        <v>1469</v>
       </c>
       <c r="J367" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>1525</v>
+        <v>1470</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1526</v>
+        <v>1618</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>1527</v>
+        <v>1471</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>22</v>
@@ -17239,15 +17245,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>1528</v>
+        <v>1472</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1529</v>
+        <v>1619</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>1530</v>
+        <v>1473</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>13</v>
@@ -17271,15 +17277,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>1531</v>
+        <v>1474</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1532</v>
+        <v>1620</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>1533</v>
+        <v>1475</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>22</v>
@@ -17303,15 +17309,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>1534</v>
+        <v>1476</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1535</v>
+        <v>1621</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>1536</v>
+        <v>1477</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>22</v>
@@ -17335,15 +17341,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>1537</v>
+        <v>1478</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1538</v>
+        <v>1622</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>1539</v>
+        <v>1479</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>22</v>
@@ -17367,15 +17373,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>1540</v>
+        <v>1480</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1541</v>
+        <v>1623</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>1542</v>
+        <v>1481</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>22</v>
@@ -17393,21 +17399,21 @@
         <v>17</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>1543</v>
+        <v>1482</v>
       </c>
       <c r="J373" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>1544</v>
+        <v>1483</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1545</v>
+        <v>1624</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1546</v>
+        <v>1484</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>13</v>
@@ -17425,21 +17431,21 @@
         <v>17</v>
       </c>
       <c r="I374" s="6" t="s">
-        <v>1547</v>
+        <v>1485</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>1548</v>
+        <v>1486</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1549</v>
+        <v>1625</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>1550</v>
+        <v>1487</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>22</v>
@@ -17457,21 +17463,21 @@
         <v>16</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>1551</v>
+        <v>1488</v>
       </c>
       <c r="J375" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>1552</v>
+        <v>1489</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1553</v>
+        <v>1626</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1554</v>
+        <v>1490</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>22</v>
@@ -17489,21 +17495,21 @@
         <v>36</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>1555</v>
+        <v>1491</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>1556</v>
+        <v>1492</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1557</v>
+        <v>1627</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1558</v>
+        <v>1493</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>22</v>
@@ -17527,15 +17533,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>1559</v>
+        <v>1494</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1560</v>
+        <v>1628</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1561</v>
+        <v>1495</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>22</v>
@@ -17559,15 +17565,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>1562</v>
+        <v>1496</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1563</v>
+        <v>1629</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1564</v>
+        <v>1497</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>13</v>
@@ -17585,21 +17591,21 @@
         <v>117</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>1479</v>
+        <v>1438</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>1565</v>
+        <v>1498</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1566</v>
+        <v>1630</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>1567</v>
+        <v>1499</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>13</v>
@@ -17623,15 +17629,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>1568</v>
+        <v>1500</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1569</v>
+        <v>1631</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>1570</v>
+        <v>1501</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>22</v>
@@ -17655,15 +17661,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>1571</v>
+        <v>1502</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1572</v>
+        <v>1632</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>1573</v>
+        <v>1503</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>22</v>
@@ -17681,21 +17687,21 @@
         <v>36</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>1574</v>
+        <v>1504</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>1575</v>
+        <v>1505</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1576</v>
+        <v>1633</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1577</v>
+        <v>1506</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>22</v>
@@ -17713,21 +17719,21 @@
         <v>16</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>1578</v>
+        <v>1507</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>1579</v>
+        <v>1508</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1580</v>
+        <v>1634</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>1581</v>
+        <v>1509</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>22</v>
@@ -17751,15 +17757,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>1582</v>
+        <v>1510</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1583</v>
+        <v>1635</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1584</v>
+        <v>1511</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>22</v>
@@ -17783,15 +17789,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>1585</v>
+        <v>1512</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1586</v>
+        <v>1636</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>1587</v>
+        <v>1513</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>22</v>
@@ -17815,15 +17821,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>1588</v>
+        <v>1514</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1589</v>
+        <v>1637</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>1590</v>
+        <v>1515</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>13</v>
@@ -17847,15 +17853,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>1591</v>
+        <v>1516</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1592</v>
+        <v>1638</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>1593</v>
+        <v>1517</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>13</v>
@@ -17873,21 +17879,21 @@
         <v>16</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>1594</v>
+        <v>1518</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>1595</v>
+        <v>1519</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1596</v>
+        <v>1639</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>1597</v>
+        <v>1520</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>22</v>
@@ -17905,21 +17911,21 @@
         <v>17</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>1598</v>
+        <v>1521</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>1599</v>
+        <v>1522</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>1601</v>
+        <v>1523</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>22</v>
@@ -17943,12 +17949,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>1602</v>
+        <v>1524</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1603</v>
+        <v>1641</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>1337</v>
@@ -17975,15 +17981,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>1604</v>
+        <v>1525</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1605</v>
+        <v>1642</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>1606</v>
+        <v>1526</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>13</v>
@@ -18007,15 +18013,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>1607</v>
+        <v>1527</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1608</v>
+        <v>1643</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>1609</v>
+        <v>1528</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>13</v>
@@ -18039,15 +18045,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>1610</v>
+        <v>1529</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1611</v>
+        <v>1644</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>1612</v>
+        <v>1530</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>22</v>
@@ -18065,21 +18071,21 @@
         <v>16</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>1613</v>
+        <v>1531</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>1614</v>
+        <v>1532</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1615</v>
+        <v>1645</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>1616</v>
+        <v>1533</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>22</v>
@@ -18103,15 +18109,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>1617</v>
+        <v>1534</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1618</v>
+        <v>1646</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>1619</v>
+        <v>1535</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>13</v>
@@ -18135,15 +18141,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>1621</v>
+        <v>1536</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1647</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>1622</v>
+        <v>1537</v>
       </c>
       <c r="D397" s="9" t="s">
         <v>22</v>
@@ -18161,21 +18167,21 @@
         <v>36</v>
       </c>
       <c r="I397" s="9" t="s">
-        <v>1623</v>
+        <v>1538</v>
       </c>
       <c r="J397" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B398" s="8" t="s">
-        <v>1625</v>
+        <v>1539</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1648</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>1626</v>
+        <v>1540</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>22</v>
@@ -18199,15 +18205,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>1628</v>
+        <v>1541</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>1649</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>1629</v>
+        <v>1542</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>13</v>
@@ -18225,21 +18231,21 @@
         <v>17</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>1630</v>
+        <v>1543</v>
       </c>
       <c r="J399" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>1632</v>
+        <v>1544</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1650</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>1633</v>
+        <v>1545</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>22</v>
@@ -18263,15 +18269,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>1635</v>
+        <v>1546</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>1651</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1636</v>
+        <v>1547</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>22</v>
@@ -18289,21 +18295,21 @@
         <v>17</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>1637</v>
+        <v>1548</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>1639</v>
+        <v>1549</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>1640</v>
+        <v>1550</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>22</v>
@@ -18327,15 +18333,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>1642</v>
+        <v>1551</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1653</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>1643</v>
+        <v>1552</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>13</v>
@@ -18353,21 +18359,21 @@
         <v>17</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>1644</v>
+        <v>1553</v>
       </c>
       <c r="J403" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>1646</v>
+        <v>1554</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>1647</v>
+        <v>1555</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>13</v>
@@ -18391,15 +18397,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>1649</v>
+        <v>1556</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1655</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>1650</v>
+        <v>1557</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>22</v>
@@ -18423,15 +18429,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>1652</v>
+        <v>1558</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1656</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>1653</v>
+        <v>1559</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>13</v>
@@ -18449,21 +18455,21 @@
         <v>17</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>1654</v>
+        <v>1560</v>
       </c>
       <c r="J406" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>1656</v>
+        <v>1561</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>1657</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>1657</v>
+        <v>1562</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>13</v>
@@ -18488,6 +18494,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>